--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_12_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_12_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3511824.470682743</v>
+        <v>3507520.165713299</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7830885.621001462</v>
+        <v>7830885.62100146</v>
       </c>
     </row>
     <row r="11">
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>224.8512161825715</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>263.5639921989981</v>
       </c>
       <c r="F2" t="n">
-        <v>27.66839420527585</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>263.5639921989976</v>
+        <v>12.83561175645086</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3620237587339</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.8004413602295</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2960065554913</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1482828471418</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.5639921989981</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>58.8936937609468</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>106.4964461715442</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.94827785225824</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.20026557072394</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1642178017449</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8440868802706</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>146.5752086789745</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -834,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>66.50632718612481</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1699595597228</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.11777503404791</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5335881704493</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7303985328715</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2171002436558</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.5639921989976</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,58 +904,58 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G5" t="n">
+        <v>12.83417464571001</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>152.7676931992223</v>
+      </c>
+      <c r="T5" t="n">
+        <v>212.2897156032232</v>
+      </c>
+      <c r="U5" t="n">
+        <v>111.2254363169657</v>
+      </c>
+      <c r="V5" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="F5" t="n">
-        <v>263.7138800015061</v>
-      </c>
-      <c r="G5" t="n">
-        <v>129.538278081653</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>115.3066195468971</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>251.1481678782825</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>109.3170492634406</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>196.9343322024246</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>4.590316591562422</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>184.5337082881001</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>273.2356431366575</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>249.3232254001306</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1293,13 +1293,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>120.3332554667399</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>34.17143870933375</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695349</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>65.67353929277246</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>60.11729550773704</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>217.8829459347453</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2010,16 +2010,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2055,10 +2055,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>64.91921363453612</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>111.5512144998715</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2371,7 +2371,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>114.2821160880066</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695527</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
-        <v>75.12653431054589</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>139.1584054594695</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>15.09910835322218</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,13 +3243,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>220.6346102953135</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3319,10 +3319,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,19 +3477,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>116.2873251119332</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>19.91555826189198</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3793,10 +3793,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>161.5330709997914</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,10 +4030,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>24.83266606353065</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>431.7865437829979</v>
+        <v>534.3445798604976</v>
       </c>
       <c r="C2" t="n">
-        <v>431.7865437829979</v>
+        <v>534.3445798604976</v>
       </c>
       <c r="D2" t="n">
-        <v>431.7865437829979</v>
+        <v>307.2221392720415</v>
       </c>
       <c r="E2" t="n">
-        <v>431.7865437829979</v>
+        <v>40.99588452557875</v>
       </c>
       <c r="F2" t="n">
-        <v>403.8386708483758</v>
+        <v>34.05038377637527</v>
       </c>
       <c r="G2" t="n">
-        <v>137.6124161019136</v>
+        <v>21.08511937591985</v>
       </c>
       <c r="H2" t="n">
-        <v>137.6124161019136</v>
+        <v>21.08511937591985</v>
       </c>
       <c r="I2" t="n">
-        <v>21.08511937591981</v>
+        <v>21.08511937591985</v>
       </c>
       <c r="J2" t="n">
-        <v>50.19026732551998</v>
+        <v>49.14994660701147</v>
       </c>
       <c r="K2" t="n">
-        <v>142.9906865349504</v>
+        <v>141.9503658164425</v>
       </c>
       <c r="L2" t="n">
-        <v>295.0195743965819</v>
+        <v>295.0195743965799</v>
       </c>
       <c r="M2" t="n">
-        <v>495.8504424173906</v>
+        <v>495.8504424173896</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5447722238173</v>
+        <v>704.5447722238171</v>
       </c>
       <c r="O2" t="n">
-        <v>888.2736487381123</v>
+        <v>888.273648738113</v>
       </c>
       <c r="P2" t="n">
-        <v>1010.58099326632</v>
+        <v>1010.580993266321</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.25596879599</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.25596879599</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="S2" t="n">
-        <v>899.9120886341425</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="T2" t="n">
-        <v>685.47167797203</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="U2" t="n">
-        <v>431.7865437829979</v>
+        <v>800.5708346069604</v>
       </c>
       <c r="V2" t="n">
-        <v>431.7865437829979</v>
+        <v>534.3445798604976</v>
       </c>
       <c r="W2" t="n">
-        <v>431.7865437829979</v>
+        <v>534.3445798604976</v>
       </c>
       <c r="X2" t="n">
-        <v>431.7865437829979</v>
+        <v>534.3445798604976</v>
       </c>
       <c r="Y2" t="n">
-        <v>431.7865437829979</v>
+        <v>534.3445798604976</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>124.9658987831976</v>
+        <v>452.0447261683428</v>
       </c>
       <c r="C3" t="n">
-        <v>124.9658987831976</v>
+        <v>277.5916968872158</v>
       </c>
       <c r="D3" t="n">
-        <v>65.47731922668572</v>
+        <v>128.6572872259645</v>
       </c>
       <c r="E3" t="n">
-        <v>65.47731922668572</v>
+        <v>21.08511937591985</v>
       </c>
       <c r="F3" t="n">
-        <v>65.47731922668572</v>
+        <v>21.08511937591985</v>
       </c>
       <c r="G3" t="n">
-        <v>65.47731922668572</v>
+        <v>21.08511937591985</v>
       </c>
       <c r="H3" t="n">
-        <v>65.47731922668572</v>
+        <v>21.08511937591985</v>
       </c>
       <c r="I3" t="n">
-        <v>21.08511937591981</v>
+        <v>21.08511937591985</v>
       </c>
       <c r="J3" t="n">
-        <v>21.08511937591981</v>
+        <v>21.08511937591985</v>
       </c>
       <c r="K3" t="n">
-        <v>121.9892869236699</v>
+        <v>95.64621773957461</v>
       </c>
       <c r="L3" t="n">
-        <v>268.5684262398016</v>
+        <v>242.225357055707</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4967785168092</v>
+        <v>432.6331671185499</v>
       </c>
       <c r="N3" t="n">
-        <v>739.3527616516405</v>
+        <v>642.4891502533819</v>
       </c>
       <c r="O3" t="n">
-        <v>909.1101923271651</v>
+        <v>812.2465809289071</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.02243028045</v>
+        <v>929.1588188821929</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.25596879599</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.25596879599</v>
+        <v>1035.871862158898</v>
       </c>
       <c r="S3" t="n">
-        <v>905.6052437437228</v>
+        <v>1035.871862158898</v>
       </c>
       <c r="T3" t="n">
-        <v>708.7930347737524</v>
+        <v>1035.871862158898</v>
       </c>
       <c r="U3" t="n">
-        <v>708.7930347737524</v>
+        <v>1035.871862158898</v>
       </c>
       <c r="V3" t="n">
-        <v>708.7930347737524</v>
+        <v>1035.871862158898</v>
       </c>
       <c r="W3" t="n">
-        <v>708.7930347737524</v>
+        <v>1035.871862158898</v>
       </c>
       <c r="X3" t="n">
-        <v>500.9415345682196</v>
+        <v>828.0203619533647</v>
       </c>
       <c r="Y3" t="n">
-        <v>293.1812358032657</v>
+        <v>620.2600631884109</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>226.93770703238</v>
+        <v>169.1408857183184</v>
       </c>
       <c r="C4" t="n">
-        <v>226.93770703238</v>
+        <v>169.1408857183184</v>
       </c>
       <c r="D4" t="n">
-        <v>226.93770703238</v>
+        <v>21.08511937591985</v>
       </c>
       <c r="E4" t="n">
-        <v>226.93770703238</v>
+        <v>21.08511937591985</v>
       </c>
       <c r="F4" t="n">
-        <v>226.93770703238</v>
+        <v>21.08511937591985</v>
       </c>
       <c r="G4" t="n">
-        <v>226.93770703238</v>
+        <v>21.08511937591985</v>
       </c>
       <c r="H4" t="n">
-        <v>159.7595987635671</v>
+        <v>21.08511937591985</v>
       </c>
       <c r="I4" t="n">
-        <v>36.35559920829144</v>
+        <v>21.08511937591985</v>
       </c>
       <c r="J4" t="n">
-        <v>21.08511937591981</v>
+        <v>21.08511937591985</v>
       </c>
       <c r="K4" t="n">
-        <v>126.327239195361</v>
+        <v>126.3272391953613</v>
       </c>
       <c r="L4" t="n">
-        <v>316.5273535735298</v>
+        <v>316.5273535735304</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4558292559542</v>
+        <v>527.4558292559552</v>
       </c>
       <c r="N4" t="n">
-        <v>738.803513656828</v>
+        <v>738.8035136568294</v>
       </c>
       <c r="O4" t="n">
-        <v>918.0010123005231</v>
+        <v>918.0010123005248</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.814747485825</v>
+        <v>1047.814747485827</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.25596879599</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="R4" t="n">
-        <v>925.4341625632132</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="S4" t="n">
-        <v>718.6357802067774</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="T4" t="n">
-        <v>493.1639617788422</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="U4" t="n">
-        <v>226.93770703238</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="V4" t="n">
-        <v>226.93770703238</v>
+        <v>799.5714805901056</v>
       </c>
       <c r="W4" t="n">
-        <v>226.93770703238</v>
+        <v>799.5714805901056</v>
       </c>
       <c r="X4" t="n">
-        <v>226.93770703238</v>
+        <v>571.5819296920882</v>
       </c>
       <c r="Y4" t="n">
-        <v>226.93770703238</v>
+        <v>350.7893505485581</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>801.1705019471533</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="C5" t="n">
-        <v>801.1705019471533</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="D5" t="n">
-        <v>801.1705019471533</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="E5" t="n">
-        <v>534.7928453799753</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
-        <v>268.4151888127974</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
         <v>21.09711040012049</v>
@@ -4594,25 +4594,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="U5" t="n">
-        <v>801.1705019471533</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="V5" t="n">
-        <v>801.1705019471533</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="W5" t="n">
-        <v>801.1705019471533</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="X5" t="n">
-        <v>801.1705019471533</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="Y5" t="n">
-        <v>801.1705019471533</v>
+        <v>307.3840804899464</v>
       </c>
     </row>
     <row r="6">
@@ -4649,49 +4649,49 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699341</v>
+        <v>95.78113116957468</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302309</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267547</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560896</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891336</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>906.2192216098642</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>709.4101432413019</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>709.4101432413019</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>474.2580350095591</v>
+        <v>801.367527981072</v>
       </c>
       <c r="W6" t="n">
-        <v>220.0206782813575</v>
+        <v>547.1301712528705</v>
       </c>
       <c r="X6" t="n">
-        <v>220.0206782813575</v>
+        <v>339.2786710473376</v>
       </c>
       <c r="Y6" t="n">
-        <v>21.09711040012049</v>
+        <v>131.5183722823837</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>342.2162480533308</v>
+        <v>466.0167908927597</v>
       </c>
       <c r="C7" t="n">
-        <v>342.2162480533308</v>
+        <v>466.0167908927597</v>
       </c>
       <c r="D7" t="n">
-        <v>342.2162480533308</v>
+        <v>315.900151480424</v>
       </c>
       <c r="E7" t="n">
-        <v>194.3031544709377</v>
+        <v>167.9870578980309</v>
       </c>
       <c r="F7" t="n">
-        <v>194.3031544709377</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G7" t="n">
-        <v>25.73379382594112</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
         <v>21.09711040012049</v>
@@ -4755,22 +4755,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>829.3864837640389</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>829.3864837640389</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>829.3864837640389</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>563.0088271968609</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X7" t="n">
-        <v>563.0088271968609</v>
+        <v>868.4578348665295</v>
       </c>
       <c r="Y7" t="n">
-        <v>342.2162480533308</v>
+        <v>647.6652557229994</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1524.3658339278</v>
+        <v>1838.755147556638</v>
       </c>
       <c r="C8" t="n">
-        <v>1524.3658339278</v>
+        <v>1469.792630616226</v>
       </c>
       <c r="D8" t="n">
-        <v>1524.3658339278</v>
+        <v>1111.526932009476</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>725.7386794112315</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>314.7527746216239</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>303.0884283863169</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V8" t="n">
-        <v>1897.83159218888</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W8" t="n">
-        <v>1897.83159218888</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="X8" t="n">
-        <v>1524.3658339278</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="Y8" t="n">
-        <v>1524.3658339278</v>
+        <v>1838.755147556638</v>
       </c>
     </row>
     <row r="9">
@@ -4865,46 +4865,46 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735141</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L9" t="n">
-        <v>1092.885047004312</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>1456.147065963532</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1843.432194560478</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>2175.502629736639</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>349.2765195627319</v>
+        <v>172.7955294637</v>
       </c>
       <c r="C10" t="n">
-        <v>349.2765195627319</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D10" t="n">
-        <v>199.1598801503962</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1048.115628253779</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V10" t="n">
-        <v>793.4311400478917</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W10" t="n">
-        <v>793.4311400478917</v>
+        <v>803.2261243354872</v>
       </c>
       <c r="X10" t="n">
-        <v>565.4415891498744</v>
+        <v>575.2365734374698</v>
       </c>
       <c r="Y10" t="n">
-        <v>530.9249843929716</v>
+        <v>354.4439942939397</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362673</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192548</v>
@@ -5059,34 +5059,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5132,13 +5132,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5193,10 +5193,10 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5226,25 +5226,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2380.626175203723</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2380.626175203723</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2091.550948547921</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V13" t="n">
-        <v>1836.866460342034</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W13" t="n">
-        <v>1547.449290305074</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>1319.459739407056</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>1098.667160263526</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5260,13 +5260,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5293,10 +5293,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5354,25 +5354,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>454.6048385560544</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>949.9304447718132</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1546.740494934014</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1098.667160263526</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5497,7 +5497,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5703,22 +5703,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5749,16 +5749,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2334.285089135946</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2045.209862480144</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1790.525374274257</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5980,28 +5980,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>526.5658826424041</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>376.4492432300683</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>376.4492432300683</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>376.4492432300683</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>209.2531439449482</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2940.578503903499</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>2940.578503903499</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>2790.461864491164</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>2642.548770908771</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>2495.65882341086</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>2495.65882341086</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4404.185983673936</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>4115.110757018134</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3860.426268812247</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3571.009098775286</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3343.019547877269</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>3122.226968733739</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,10 +6460,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6472,10 +6472,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6490,10 +6490,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6505,7 +6505,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>244.2098454714574</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.913939313768</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N30" t="n">
-        <v>1964.511902868375</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4471.231687421535</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>4182.156460765733</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>4041.592414847077</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3752.175244810116</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3524.185693912098</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192412</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111694</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075786</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>803.2707707770319</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C34" t="n">
-        <v>803.2707707770319</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D34" t="n">
-        <v>653.1541313646961</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E34" t="n">
-        <v>505.241037782303</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>358.3510902843926</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>191.1549909992726</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.701365648819</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.711814750802</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y34" t="n">
-        <v>984.9192356072716</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,16 +6934,16 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6952,10 +6952,10 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852254</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797186</v>
@@ -7125,22 +7125,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1907.987318831765</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1618.570148794804</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7207,16 +7207,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2824.769373306003</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>2655.833190378096</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>2505.71655096576</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>2357.803457383367</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>2357.803457383367</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>2337.686731866304</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>3455.19996817779</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>3227.210417279773</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>3006.417838136243</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,22 +7408,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7441,19 +7441,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>640.1060525954244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>640.1060525954244</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7608,13 +7608,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1270.536647467212</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1042.547096569194</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>821.7545174256642</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7627,19 +7627,19 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7678,19 +7678,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7733,19 +7733,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>542.9134462654469</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M45" t="n">
-        <v>1140.291933891999</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N45" t="n">
-        <v>1767.889897446606</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>580.8993044876688</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7978,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.050829008594924</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.050829008591023</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.60994937518669</v>
+        <v>60.60994937518637</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.123866789362566</v>
+        <v>2.12386678936231</v>
       </c>
       <c r="K3" t="n">
-        <v>26.60916079201586</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>71.23287092339939</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.84203171541321</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
-        <v>97.32166909127218</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>97.32166909127223</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L9" t="n">
-        <v>240.446544241744</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23466,19 +23466,19 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>115.3527467088721</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>226.405702828854</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>100.7734165143927</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.7017074173494677</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23898,16 +23898,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23943,10 +23943,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>221.265260754708</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>105.8542358274168</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>26.01259675821728</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H28" t="n">
-        <v>65.168178535678</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>112.9792378643585</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>125.1956044930017</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,13 +25131,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>65.54986409393067</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,19 +25365,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>109.4223302771039</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>145.6085800303769</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>124.9899273367996</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>123.7828069546817</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>118.3918499711702</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>688130.6484786973</v>
+        <v>688130.6484786972</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>691809.1007194668</v>
+        <v>691809.1007194667</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>673215.272324403</v>
+        <v>673215.2723244029</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>673215.2723244029</v>
+        <v>673215.2723244028</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>673215.2723244029</v>
+        <v>673215.2723244028</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>673215.2723244029</v>
+        <v>673215.2723244028</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>673215.272324403</v>
+        <v>673215.2723244028</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>673215.2723244029</v>
+        <v>673215.2723244028</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>673215.272324403</v>
+        <v>673215.2723244028</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>673215.2723244029</v>
+        <v>673215.2723244028</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>673215.2723244029</v>
+        <v>673215.2723244028</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>673215.2723244029</v>
+        <v>673215.2723244028</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244618</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="E2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="F2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="G2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="H2" t="n">
         <v>746610.6047132551</v>
-      </c>
-      <c r="F2" t="n">
-        <v>746610.6047132551</v>
-      </c>
-      <c r="G2" t="n">
-        <v>746610.6047132551</v>
-      </c>
-      <c r="H2" t="n">
-        <v>746610.6047132554</v>
       </c>
       <c r="I2" t="n">
         <v>746610.6047132552</v>
@@ -26340,22 +26340,22 @@
         <v>746610.6047132551</v>
       </c>
       <c r="K2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="L2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="L2" t="n">
-        <v>746610.6047132555</v>
-      </c>
       <c r="M2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="N2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="N2" t="n">
-        <v>746610.6047132554</v>
-      </c>
       <c r="O2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.604713255</v>
+        <v>746610.6047132552</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679693.2761163119</v>
+        <v>679693.2761163132</v>
       </c>
       <c r="C3" t="n">
-        <v>373.9475389967181</v>
+        <v>373.9475389954141</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059434</v>
+        <v>391128.3638059433</v>
       </c>
       <c r="E3" t="n">
         <v>507485.4416245461</v>
@@ -26383,19 +26383,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.638881957818216e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68959.93717491446</v>
+        <v>68959.93717491467</v>
       </c>
       <c r="K3" t="n">
-        <v>38.57632395605124</v>
+        <v>38.57632395588744</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756974</v>
+        <v>95382.64613756973</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>246846.0156077615</v>
+        <v>246846.0156077612</v>
       </c>
       <c r="C4" t="n">
-        <v>246753.8673982313</v>
+        <v>246753.8673982314</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426731974</v>
@@ -26447,10 +26447,10 @@
         <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
-        <v>8117.312426732015</v>
+        <v>8117.312426731997</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732036</v>
       </c>
       <c r="N4" t="n">
         <v>8117.312426731974</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63030.89693360371</v>
+        <v>63030.89693360377</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-230106.5515332147</v>
+        <v>-230106.5515332159</v>
       </c>
       <c r="C6" t="n">
-        <v>449288.0189829676</v>
+        <v>449288.018982969</v>
       </c>
       <c r="D6" t="n">
-        <v>141079.5006168107</v>
+        <v>141079.5006168105</v>
       </c>
       <c r="E6" t="n">
-        <v>129885.3208380699</v>
+        <v>129537.9415837131</v>
       </c>
       <c r="F6" t="n">
-        <v>637370.7624626161</v>
+        <v>637023.3832082595</v>
       </c>
       <c r="G6" t="n">
-        <v>637370.7624626163</v>
+        <v>637023.3832082595</v>
       </c>
       <c r="H6" t="n">
-        <v>637370.7624626164</v>
+        <v>637023.3832082591</v>
       </c>
       <c r="I6" t="n">
-        <v>637370.7624626162</v>
+        <v>637023.3832082592</v>
       </c>
       <c r="J6" t="n">
-        <v>568410.8252877017</v>
+        <v>568063.4460333445</v>
       </c>
       <c r="K6" t="n">
-        <v>637332.1861386602</v>
+        <v>636984.8068843035</v>
       </c>
       <c r="L6" t="n">
-        <v>541988.1163250466</v>
+        <v>541640.7370706894</v>
       </c>
       <c r="M6" t="n">
-        <v>504763.4687336895</v>
+        <v>504416.0894793323</v>
       </c>
       <c r="N6" t="n">
-        <v>637370.7624626164</v>
+        <v>637023.3832082592</v>
       </c>
       <c r="O6" t="n">
-        <v>637370.7624626164</v>
+        <v>637023.3832082592</v>
       </c>
       <c r="P6" t="n">
-        <v>637370.762462616</v>
+        <v>637023.3832082592</v>
       </c>
     </row>
   </sheetData>
@@ -26709,16 +26709,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.29860244727277e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.533726305840002e-15</v>
       </c>
       <c r="L2" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.6975324726909</v>
+        <v>613.6975324726922</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.5639921989976</v>
+        <v>263.5639921989981</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26925,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.29860244727277e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>2.564650918199847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.6975324726909</v>
+        <v>613.6975324726922</v>
       </c>
       <c r="C3" t="n">
-        <v>0.357481296787455</v>
+        <v>0.3574812967862044</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480609</v>
+        <v>320.0098783480607</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241348</v>
+        <v>433.9106082241349</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.5639921989976</v>
+        <v>263.5639921989981</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1498878025085446</v>
+        <v>0.149887802508033</v>
       </c>
       <c r="D4" t="n">
-        <v>376.8709520985327</v>
+        <v>376.8709520985326</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.5639921989974</v>
+        <v>263.5639921989981</v>
       </c>
       <c r="K4" t="n">
-        <v>0.149887802508772</v>
+        <v>0.149887802508033</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985325</v>
+        <v>376.8709520985326</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.29860244727277e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.5639921989976</v>
+        <v>263.5639921989981</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1498878025085446</v>
+        <v>0.149887802508033</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985327</v>
+        <v>376.8709520985326</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>129.8318254381115</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.3663778732637</v>
       </c>
       <c r="F2" t="n">
-        <v>379.2076515364356</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>149.2716195574533</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>314.2083504396427</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3620237587337</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.8004413602293</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2960065554913</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.1882662711368</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27460,13 +27460,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>88.55137180369195</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>51.14863428385672</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27475,10 +27475,10 @@
         <v>136.0234885084581</v>
       </c>
       <c r="H3" t="n">
-        <v>99.48674643928075</v>
+        <v>99.48674643928072</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.94827785225815</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.20026557072411</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1642178017449</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8440868802706</v>
       </c>
       <c r="U3" t="n">
         <v>225.8545380905306</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>2.040264339237808</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27554,13 +27554,13 @@
         <v>166.8843116769506</v>
       </c>
       <c r="H4" t="n">
-        <v>85.88156357117883</v>
+        <v>152.3878907573036</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1699595597228</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.11777503404775</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5335881704492</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7303985328714</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2171002436558</v>
       </c>
       <c r="U4" t="n">
-        <v>22.69467346577467</v>
+        <v>286.2586656647723</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402053</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>283.295896564057</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>139.9227315613168</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>57.21613438642676</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27742,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
@@ -27760,10 +27760,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.748363574879733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27773,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>147.7918427442944</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
         <v>122.1505735248085</v>
@@ -27827,7 +27827,7 @@
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
         <v>286.2586305026775</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>41.17594710093709</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,25 +27855,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>108.6947269356043</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>51.69532716227476</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,16 +27912,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,13 +28013,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>46.91356563188793</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28028,7 +28028,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
@@ -28073,13 +28073,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>184.413214642761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29748,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>5.142369289011372e-13</v>
       </c>
       <c r="V32" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29997,7 +29997,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.467125758684183</v>
+        <v>2.467125758684188</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26645167612439</v>
+        <v>25.26645167612444</v>
       </c>
       <c r="I2" t="n">
-        <v>95.11386581167204</v>
+        <v>95.11386581167224</v>
       </c>
       <c r="J2" t="n">
-        <v>209.3942148611218</v>
+        <v>209.3942148611223</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8276482262233</v>
+        <v>313.827648226224</v>
       </c>
       <c r="L2" t="n">
-        <v>389.3309481635545</v>
+        <v>389.3309481635553</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2056958745543</v>
+        <v>433.2056958745552</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2154169364158</v>
+        <v>440.2154169364167</v>
       </c>
       <c r="O2" t="n">
-        <v>415.6829351734999</v>
+        <v>415.6829351735008</v>
       </c>
       <c r="P2" t="n">
-        <v>354.7757680059841</v>
+        <v>354.7757680059848</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4218267731067</v>
+        <v>266.4218267731073</v>
       </c>
       <c r="R2" t="n">
-        <v>154.9755884389454</v>
+        <v>154.9755884389457</v>
       </c>
       <c r="S2" t="n">
-        <v>56.21962822601587</v>
+        <v>56.21962822601598</v>
       </c>
       <c r="T2" t="n">
-        <v>10.79984300864002</v>
+        <v>10.79984300864004</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1973700606947346</v>
+        <v>0.197370060694735</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320028654752581</v>
+        <v>1.320028654752583</v>
       </c>
       <c r="H3" t="n">
-        <v>12.74869779721571</v>
+        <v>12.74869779721574</v>
       </c>
       <c r="I3" t="n">
-        <v>45.44835499915683</v>
+        <v>45.44835499915693</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7137598773041</v>
+        <v>124.7137598773044</v>
       </c>
       <c r="K3" t="n">
-        <v>213.155679745727</v>
+        <v>213.1556797457274</v>
       </c>
       <c r="L3" t="n">
-        <v>286.6141164628355</v>
+        <v>286.6141164628361</v>
       </c>
       <c r="M3" t="n">
-        <v>334.4651551976165</v>
+        <v>334.4651551976172</v>
       </c>
       <c r="N3" t="n">
-        <v>343.317452623567</v>
+        <v>343.3174526235677</v>
       </c>
       <c r="O3" t="n">
-        <v>314.068396641944</v>
+        <v>314.0683966419446</v>
       </c>
       <c r="P3" t="n">
-        <v>252.0675770641134</v>
+        <v>252.0675770641139</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5004998592943</v>
+        <v>168.5004998592947</v>
       </c>
       <c r="R3" t="n">
-        <v>81.95756858191902</v>
+        <v>81.95756858191919</v>
       </c>
       <c r="S3" t="n">
-        <v>24.51895330209287</v>
+        <v>24.51895330209292</v>
       </c>
       <c r="T3" t="n">
-        <v>5.320641814550969</v>
+        <v>5.32064181455098</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08684399044424874</v>
+        <v>0.08684399044424893</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.106667681508131</v>
+        <v>1.106667681508133</v>
       </c>
       <c r="H4" t="n">
-        <v>9.839281750135935</v>
+        <v>9.839281750135957</v>
       </c>
       <c r="I4" t="n">
-        <v>33.28051536753544</v>
+        <v>33.28051536753551</v>
       </c>
       <c r="J4" t="n">
-        <v>78.24140508262487</v>
+        <v>78.24140508262502</v>
       </c>
       <c r="K4" t="n">
-        <v>128.5746633606719</v>
+        <v>128.5746633606722</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5313023943998</v>
+        <v>164.5313023944001</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4751893840427</v>
+        <v>173.4751893840431</v>
       </c>
       <c r="N4" t="n">
-        <v>169.3503371166035</v>
+        <v>169.3503371166038</v>
       </c>
       <c r="O4" t="n">
-        <v>156.4224464735312</v>
+        <v>156.4224464735315</v>
       </c>
       <c r="P4" t="n">
-        <v>133.8464257707652</v>
+        <v>133.8464257707654</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.66832740337632</v>
+        <v>92.66832740337651</v>
       </c>
       <c r="R4" t="n">
-        <v>49.75980320672014</v>
+        <v>49.75980320672024</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28619950410079</v>
+        <v>19.28619950410082</v>
       </c>
       <c r="T4" t="n">
-        <v>4.72848918462565</v>
+        <v>4.728489184625659</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0603636917186254</v>
+        <v>0.06036369171862552</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31518,43 +31518,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,7 +31609,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31618,25 +31618,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31709,13 +31709,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31852,16 +31852,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>370.9642309107744</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>351.1157147121648</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32320,25 +32320,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>322.6999460717714</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32575,7 +32575,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,31 +33022,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,31 +33259,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>138.5955196772184</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33496,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,10 +33514,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33733,16 +33733,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33985,19 +33985,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>322.6999460717714</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34207,34 +34207,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34453,7 +34453,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>441.0292693655512</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34465,10 +34465,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.39913934303048</v>
+        <v>28.34831033443598</v>
       </c>
       <c r="K2" t="n">
-        <v>93.7377971812428</v>
+        <v>93.73779718124342</v>
       </c>
       <c r="L2" t="n">
-        <v>153.5645331935672</v>
+        <v>154.615362202159</v>
       </c>
       <c r="M2" t="n">
-        <v>202.8594626472816</v>
+        <v>202.8594626472825</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8023533398249</v>
+        <v>210.8023533398257</v>
       </c>
       <c r="O2" t="n">
-        <v>185.5847237518132</v>
+        <v>185.584723751814</v>
       </c>
       <c r="P2" t="n">
-        <v>123.5427722507146</v>
+        <v>123.5427722507153</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.11613689865723</v>
+        <v>44.1161368986578</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>101.9234015633839</v>
+        <v>75.31424077136845</v>
       </c>
       <c r="L3" t="n">
-        <v>148.0597366829613</v>
+        <v>148.059736682962</v>
       </c>
       <c r="M3" t="n">
-        <v>263.5639921989976</v>
+        <v>192.3311212755989</v>
       </c>
       <c r="N3" t="n">
-        <v>211.9757405402337</v>
+        <v>211.9757405402344</v>
       </c>
       <c r="O3" t="n">
-        <v>171.4721521974996</v>
+        <v>171.4721521975002</v>
       </c>
       <c r="P3" t="n">
-        <v>118.0931696497832</v>
+        <v>118.0931696497837</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.51872577327282</v>
+        <v>126.3607574886864</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3051715347891</v>
+        <v>106.3051715347893</v>
       </c>
       <c r="L4" t="n">
-        <v>192.1213276547159</v>
+        <v>192.1213276547163</v>
       </c>
       <c r="M4" t="n">
-        <v>213.0590663458833</v>
+        <v>213.0590663458837</v>
       </c>
       <c r="N4" t="n">
-        <v>213.4825094958321</v>
+        <v>213.4825094958324</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0075743875708</v>
+        <v>181.0075743875711</v>
       </c>
       <c r="P4" t="n">
-        <v>131.1249850356587</v>
+        <v>131.1249850356589</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.506284151681939</v>
+        <v>6.506284151682124</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>172.7600739089027</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L6" t="n">
         <v>148.2266905659563</v>
@@ -35035,7 +35035,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649641</v>
+        <v>125.9385470877686</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L9" t="n">
-        <v>538.1269048795942</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35269,13 +35269,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35342,7 +35342,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35351,7 +35351,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35500,16 +35500,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>228.3679864663299</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>213.2742757378059</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,25 +35968,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>191.358233988438</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36141,7 +36141,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36594,10 +36594,10 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367767</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36852,7 +36852,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0.7540807028594299</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,10 +37162,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37633,19 +37633,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>191.358233988438</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38034,13 +38034,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>302.474889585677</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38113,10 +38113,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_12_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_12_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3507520.165713299</v>
+        <v>3509280.696016084</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7830885.62100146</v>
+        <v>7830885.621001461</v>
       </c>
     </row>
     <row r="11">
@@ -661,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>263.563992198998</v>
       </c>
       <c r="D2" t="n">
-        <v>224.8512161825715</v>
+        <v>263.563992198998</v>
       </c>
       <c r="E2" t="n">
-        <v>263.5639921989981</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83561175645086</v>
+        <v>263.563992198998</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -715,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1482828471418</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>263.5639921989981</v>
+        <v>225.271118587166</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>21.14092458675728</v>
       </c>
       <c r="E3" t="n">
-        <v>106.4964461715442</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.20026557072394</v>
+        <v>18.20026557072399</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -822,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>146.5752086789745</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>183.9520237041264</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>212.5689651179051</v>
+      </c>
+      <c r="C5" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>111.2254363169657</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>263.7138800015061</v>
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>109.3170492634406</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>125.2783963262413</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1034,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>123.5838339821181</v>
       </c>
       <c r="X7" t="n">
-        <v>184.5337082881001</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1141,16 +1141,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>130.4874138296989</v>
       </c>
       <c r="H8" t="n">
-        <v>249.3232254001306</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1293,19 +1293,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>120.3332554667399</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>171.1971464172153</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695349</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1539,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,16 +1584,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>60.11729550773704</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>159.9541141389049</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>45.66054613217651</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487369</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1852,13 +1852,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>18.70843787977262</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2086,10 +2086,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2478,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>221.1801025849732</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2715,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>45.66054613217656</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>103.1686991936193</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>219.245038753228</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>220.6346102953135</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>164.5981994227929</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3793,10 +3793,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>115.4764219077138</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
         <v>27.02919805176109</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>534.3445798604976</v>
+        <v>826.7093843645112</v>
       </c>
       <c r="C2" t="n">
-        <v>534.3445798604976</v>
+        <v>560.4831296180486</v>
       </c>
       <c r="D2" t="n">
-        <v>307.2221392720415</v>
+        <v>294.2568748715859</v>
       </c>
       <c r="E2" t="n">
-        <v>40.99588452557875</v>
+        <v>294.2568748715859</v>
       </c>
       <c r="F2" t="n">
-        <v>34.05038377637527</v>
+        <v>287.3113741223825</v>
       </c>
       <c r="G2" t="n">
-        <v>21.08511937591985</v>
+        <v>21.08511937591984</v>
       </c>
       <c r="H2" t="n">
-        <v>21.08511937591985</v>
+        <v>21.08511937591984</v>
       </c>
       <c r="I2" t="n">
-        <v>21.08511937591985</v>
+        <v>21.08511937591984</v>
       </c>
       <c r="J2" t="n">
-        <v>49.14994660701147</v>
+        <v>49.14994660701134</v>
       </c>
       <c r="K2" t="n">
-        <v>141.9503658164425</v>
+        <v>141.9503658164422</v>
       </c>
       <c r="L2" t="n">
-        <v>295.0195743965799</v>
+        <v>293.9792536780743</v>
       </c>
       <c r="M2" t="n">
-        <v>495.8504424173896</v>
+        <v>494.8101216988837</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5447722238171</v>
+        <v>703.504451505311</v>
       </c>
       <c r="O2" t="n">
-        <v>888.273648738113</v>
+        <v>887.2333280196067</v>
       </c>
       <c r="P2" t="n">
-        <v>1010.580993266321</v>
+        <v>1009.540672547815</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.255968795992</v>
+        <v>1053.215648077486</v>
       </c>
       <c r="R2" t="n">
         <v>1054.255968795992</v>
@@ -4363,19 +4363,19 @@
         <v>1054.255968795992</v>
       </c>
       <c r="U2" t="n">
-        <v>800.5708346069604</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="V2" t="n">
-        <v>534.3445798604976</v>
+        <v>826.7093843645112</v>
       </c>
       <c r="W2" t="n">
-        <v>534.3445798604976</v>
+        <v>826.7093843645112</v>
       </c>
       <c r="X2" t="n">
-        <v>534.3445798604976</v>
+        <v>826.7093843645112</v>
       </c>
       <c r="Y2" t="n">
-        <v>534.3445798604976</v>
+        <v>826.7093843645112</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>452.0447261683428</v>
+        <v>216.8926179365997</v>
       </c>
       <c r="C3" t="n">
-        <v>277.5916968872158</v>
+        <v>42.43958865547265</v>
       </c>
       <c r="D3" t="n">
-        <v>128.6572872259645</v>
+        <v>21.08511937591984</v>
       </c>
       <c r="E3" t="n">
-        <v>21.08511937591985</v>
+        <v>21.08511937591984</v>
       </c>
       <c r="F3" t="n">
-        <v>21.08511937591985</v>
+        <v>21.08511937591984</v>
       </c>
       <c r="G3" t="n">
-        <v>21.08511937591985</v>
+        <v>21.08511937591984</v>
       </c>
       <c r="H3" t="n">
-        <v>21.08511937591985</v>
+        <v>21.08511937591984</v>
       </c>
       <c r="I3" t="n">
-        <v>21.08511937591985</v>
+        <v>21.08511937591984</v>
       </c>
       <c r="J3" t="n">
-        <v>21.08511937591985</v>
+        <v>21.08511937591984</v>
       </c>
       <c r="K3" t="n">
-        <v>95.64621773957461</v>
+        <v>192.5098291378343</v>
       </c>
       <c r="L3" t="n">
-        <v>242.225357055707</v>
+        <v>339.0889684539665</v>
       </c>
       <c r="M3" t="n">
-        <v>432.6331671185499</v>
+        <v>529.4967785168092</v>
       </c>
       <c r="N3" t="n">
-        <v>642.4891502533819</v>
+        <v>739.352761651641</v>
       </c>
       <c r="O3" t="n">
-        <v>812.2465809289071</v>
+        <v>909.110192327166</v>
       </c>
       <c r="P3" t="n">
-        <v>929.1588188821929</v>
+        <v>1026.022430280452</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.255968795992</v>
       </c>
       <c r="R3" t="n">
-        <v>1035.871862158898</v>
+        <v>1035.871862158897</v>
       </c>
       <c r="S3" t="n">
-        <v>1035.871862158898</v>
+        <v>1035.871862158897</v>
       </c>
       <c r="T3" t="n">
-        <v>1035.871862158898</v>
+        <v>1035.871862158897</v>
       </c>
       <c r="U3" t="n">
-        <v>1035.871862158898</v>
+        <v>1035.871862158897</v>
       </c>
       <c r="V3" t="n">
-        <v>1035.871862158898</v>
+        <v>800.7197539271544</v>
       </c>
       <c r="W3" t="n">
-        <v>1035.871862158898</v>
+        <v>800.7197539271544</v>
       </c>
       <c r="X3" t="n">
-        <v>828.0203619533647</v>
+        <v>592.8682537216216</v>
       </c>
       <c r="Y3" t="n">
-        <v>620.2600631884109</v>
+        <v>385.1079549566677</v>
       </c>
     </row>
     <row r="4">
@@ -4464,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169.1408857183184</v>
+        <v>466.0047998685591</v>
       </c>
       <c r="C4" t="n">
-        <v>169.1408857183184</v>
+        <v>466.0047998685591</v>
       </c>
       <c r="D4" t="n">
-        <v>21.08511937591985</v>
+        <v>315.8881604562233</v>
       </c>
       <c r="E4" t="n">
-        <v>21.08511937591985</v>
+        <v>167.9750668738302</v>
       </c>
       <c r="F4" t="n">
-        <v>21.08511937591985</v>
+        <v>21.08511937591984</v>
       </c>
       <c r="G4" t="n">
-        <v>21.08511937591985</v>
+        <v>21.08511937591984</v>
       </c>
       <c r="H4" t="n">
-        <v>21.08511937591985</v>
+        <v>21.08511937591984</v>
       </c>
       <c r="I4" t="n">
-        <v>21.08511937591985</v>
+        <v>21.08511937591984</v>
       </c>
       <c r="J4" t="n">
-        <v>21.08511937591985</v>
+        <v>21.08511937591984</v>
       </c>
       <c r="K4" t="n">
-        <v>126.3272391953613</v>
+        <v>126.3272391953614</v>
       </c>
       <c r="L4" t="n">
         <v>316.5273535735304</v>
@@ -4500,10 +4500,10 @@
         <v>527.4558292559552</v>
       </c>
       <c r="N4" t="n">
-        <v>738.8035136568294</v>
+        <v>738.8035136568292</v>
       </c>
       <c r="O4" t="n">
-        <v>918.0010123005248</v>
+        <v>918.0010123005245</v>
       </c>
       <c r="P4" t="n">
         <v>1047.814747485827</v>
@@ -4524,16 +4524,16 @@
         <v>1054.255968795992</v>
       </c>
       <c r="V4" t="n">
-        <v>799.5714805901056</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="W4" t="n">
-        <v>799.5714805901056</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="X4" t="n">
-        <v>571.5819296920882</v>
+        <v>868.4458438423289</v>
       </c>
       <c r="Y4" t="n">
-        <v>350.7893505485581</v>
+        <v>647.6532646987988</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41.00642392276842</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="C5" t="n">
-        <v>41.00642392276842</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="D5" t="n">
         <v>41.00642392276842</v>
@@ -4567,16 +4567,16 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917585</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052541</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030601</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
         <v>704.5463761991316</v>
@@ -4594,25 +4594,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>686.1106626298169</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>573.7617370571243</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>307.3840804899464</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="W5" t="n">
-        <v>307.3840804899464</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="X5" t="n">
-        <v>307.3840804899464</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="Y5" t="n">
-        <v>307.3840804899464</v>
+        <v>788.4778634388466</v>
       </c>
     </row>
     <row r="6">
@@ -4622,13 +4622,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.09711040012049</v>
+        <v>471.0283840154698</v>
       </c>
       <c r="C6" t="n">
-        <v>21.09711040012049</v>
+        <v>296.5753547343428</v>
       </c>
       <c r="D6" t="n">
-        <v>21.09711040012049</v>
+        <v>147.6409450730915</v>
       </c>
       <c r="E6" t="n">
         <v>21.09711040012049</v>
@@ -4646,52 +4646,52 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>117.4455628004801</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957468</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298714</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263952</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290002</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557301</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891336</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V6" t="n">
-        <v>801.367527981072</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W6" t="n">
-        <v>547.1301712528705</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X6" t="n">
-        <v>339.2786710473376</v>
+        <v>847.0040198004917</v>
       </c>
       <c r="Y6" t="n">
-        <v>131.5183722823837</v>
+        <v>639.2437210355379</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>466.0167908927597</v>
+        <v>481.2412344269841</v>
       </c>
       <c r="C7" t="n">
-        <v>466.0167908927597</v>
+        <v>481.2412344269841</v>
       </c>
       <c r="D7" t="n">
-        <v>315.900151480424</v>
+        <v>331.1245950146483</v>
       </c>
       <c r="E7" t="n">
-        <v>167.9870578980309</v>
+        <v>183.2115014322552</v>
       </c>
       <c r="F7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="G7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
@@ -4731,13 +4731,13 @@
         <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
         <v>918.4699372075542</v>
@@ -4764,13 +4764,13 @@
         <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>1054.855520006025</v>
+        <v>930.0233644685316</v>
       </c>
       <c r="X7" t="n">
-        <v>868.4578348665295</v>
+        <v>702.0338135705142</v>
       </c>
       <c r="Y7" t="n">
-        <v>647.6652557229994</v>
+        <v>481.2412344269841</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1838.755147556638</v>
+        <v>1321.26637541962</v>
       </c>
       <c r="C8" t="n">
-        <v>1469.792630616226</v>
+        <v>952.3038584792084</v>
       </c>
       <c r="D8" t="n">
-        <v>1111.526932009476</v>
+        <v>594.038159872458</v>
       </c>
       <c r="E8" t="n">
-        <v>725.7386794112315</v>
+        <v>594.038159872458</v>
       </c>
       <c r="F8" t="n">
-        <v>314.7527746216239</v>
+        <v>183.0522550828504</v>
       </c>
       <c r="G8" t="n">
-        <v>303.0884283863169</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V8" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W8" t="n">
-        <v>2228.89447953245</v>
+        <v>2084.871465656512</v>
       </c>
       <c r="X8" t="n">
-        <v>2228.89447953245</v>
+        <v>1711.405707395432</v>
       </c>
       <c r="Y8" t="n">
-        <v>1838.755147556638</v>
+        <v>1321.26637541962</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>593.9684409159571</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>957.2304598751772</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1344.515588472122</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4916,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>172.7955294637</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C10" t="n">
-        <v>51.2467865680031</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D10" t="n">
-        <v>51.2467865680031</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2467865680031</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4995,19 +4995,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1347.327782578335</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1092.643294372448</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>803.2261243354872</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X10" t="n">
-        <v>575.2365734374698</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y10" t="n">
-        <v>354.4439942939397</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5129,19 +5129,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5272,55 +5272,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,22 +5351,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
         <v>2001.151557821488</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D16" t="n">
-        <v>363.7369613277355</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5494,70 +5494,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L18" t="n">
         <v>776.1751066403293</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>194.8007783998286</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5746,55 +5746,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5980,28 +5980,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6174,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="26">
@@ -6214,31 +6214,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,16 +6247,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466572</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6363,25 +6363,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6451,19 +6451,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6472,10 +6472,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6505,7 +6505,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6548,22 +6548,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M30" t="n">
-        <v>1074.481071167373</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>198.027470314254</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,10 +6733,10 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
         <v>3467.980956852889</v>
@@ -6791,7 +6791,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,7 +6934,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6946,13 +6946,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7019,16 +7019,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797186</v>
@@ -7128,19 +7128,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,28 +7171,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7207,16 +7207,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7259,13 +7259,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
         <v>402.7245934908939</v>
@@ -7374,10 +7374,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7414,7 +7414,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,16 +7444,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7493,16 +7493,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="44">
@@ -7630,31 +7630,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7675,22 +7675,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7794,7 +7794,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
         <v>317.6151975578602</v>
@@ -7984,7 +7984,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.050829008591023</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.60994937518637</v>
+        <v>61.66077838377872</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.12386678936231</v>
+        <v>2.123866789362381</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>97.84203171541392</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.84203171541321</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>99.37288961069065</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127223</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>0.9556134883072218</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10606,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>-8.526512829121202e-13</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,16 +23472,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>226.405702828854</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>65.75554125013221</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,19 +23655,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>100.7734165143927</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>121.5862749664513</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>65.54986409393025</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>30.95754073885476</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>32.89260457059996</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>65.54986409393067</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.9259388694759139</v>
       </c>
       <c r="H37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>65.54986409393081</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26034,10 +26034,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>118.3918499711702</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>691809.1007194667</v>
+        <v>691809.1007194668</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>673215.272324403</v>
+        <v>673215.2723244029</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>673215.2723244029</v>
+        <v>673215.2723244028</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>673215.2723244028</v>
+        <v>673215.2723244029</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>673215.2723244028</v>
+        <v>673215.2723244029</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>673215.2723244028</v>
+        <v>673215.272324403</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>673215.2723244028</v>
+        <v>673215.2723244029</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>673215.2723244028</v>
+        <v>673215.2723244029</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244621</v>
+        <v>759463.6371244619</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="E2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="F2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="G2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="F2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="I2" t="n">
         <v>746610.6047132554</v>
       </c>
-      <c r="H2" t="n">
-        <v>746610.6047132551</v>
-      </c>
-      <c r="I2" t="n">
-        <v>746610.6047132552</v>
-      </c>
       <c r="J2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="K2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="L2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="M2" t="n">
+        <v>746610.604713255</v>
+      </c>
+      <c r="N2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="O2" t="n">
         <v>746610.6047132551</v>
       </c>
-      <c r="N2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="O2" t="n">
-        <v>746610.6047132552</v>
-      </c>
       <c r="P2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132553</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679693.2761163132</v>
+        <v>679693.2761163128</v>
       </c>
       <c r="C3" t="n">
-        <v>373.9475389954141</v>
+        <v>373.9475389956514</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059433</v>
+        <v>391128.3638059435</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245461</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68959.93717491467</v>
+        <v>68959.93717491458</v>
       </c>
       <c r="K3" t="n">
-        <v>38.57632395588744</v>
+        <v>38.57632395597012</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756973</v>
+        <v>95382.64613756974</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>246753.8673982314</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426731974</v>
@@ -26447,10 +26447,10 @@
         <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
-        <v>8117.312426731997</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.312426732036</v>
+        <v>8117.312426731954</v>
       </c>
       <c r="N4" t="n">
         <v>8117.312426731974</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63030.89693360377</v>
+        <v>63030.89693360376</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-230106.5515332159</v>
+        <v>-230106.5515332157</v>
       </c>
       <c r="C6" t="n">
-        <v>449288.018982969</v>
+        <v>449288.0189829687</v>
       </c>
       <c r="D6" t="n">
-        <v>141079.5006168105</v>
+        <v>141079.5006168106</v>
       </c>
       <c r="E6" t="n">
-        <v>129537.9415837131</v>
+        <v>129850.5829126346</v>
       </c>
       <c r="F6" t="n">
-        <v>637023.3832082595</v>
+        <v>637336.0245371806</v>
       </c>
       <c r="G6" t="n">
-        <v>637023.3832082595</v>
+        <v>637336.0245371806</v>
       </c>
       <c r="H6" t="n">
-        <v>637023.3832082591</v>
+        <v>637336.0245371806</v>
       </c>
       <c r="I6" t="n">
-        <v>637023.3832082592</v>
+        <v>637336.0245371809</v>
       </c>
       <c r="J6" t="n">
-        <v>568063.4460333445</v>
+        <v>568376.0873622663</v>
       </c>
       <c r="K6" t="n">
-        <v>636984.8068843035</v>
+        <v>637297.4482132246</v>
       </c>
       <c r="L6" t="n">
-        <v>541640.7370706894</v>
+        <v>541953.3783996111</v>
       </c>
       <c r="M6" t="n">
-        <v>504416.0894793323</v>
+        <v>504728.7308082537</v>
       </c>
       <c r="N6" t="n">
-        <v>637023.3832082592</v>
+        <v>637336.0245371808</v>
       </c>
       <c r="O6" t="n">
-        <v>637023.3832082592</v>
+        <v>637336.0245371804</v>
       </c>
       <c r="P6" t="n">
-        <v>637023.3832082592</v>
+        <v>637336.0245371807</v>
       </c>
     </row>
   </sheetData>
@@ -26712,13 +26712,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.533726305840002e-15</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.6975324726922</v>
+        <v>613.6975324726918</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.5639921989981</v>
+        <v>263.563992198998</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.564650918199847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.6975324726922</v>
+        <v>613.6975324726918</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3574812967862044</v>
+        <v>0.3574812967864318</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480607</v>
+        <v>320.009878348061</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.9106082241348</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.5639921989981</v>
+        <v>263.563992198998</v>
       </c>
       <c r="C4" t="n">
-        <v>0.149887802508033</v>
+        <v>0.1498878025081269</v>
       </c>
       <c r="D4" t="n">
-        <v>376.8709520985326</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.5639921989981</v>
+        <v>263.5639921989978</v>
       </c>
       <c r="K4" t="n">
-        <v>0.149887802508033</v>
+        <v>0.1498878025083543</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985326</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.5639921989981</v>
+        <v>263.563992198998</v>
       </c>
       <c r="K4" t="n">
-        <v>0.149887802508033</v>
+        <v>0.1498878025081269</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985326</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,19 +27381,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>101.7088995720096</v>
       </c>
       <c r="D2" t="n">
-        <v>129.8318254381115</v>
+        <v>91.11904942168496</v>
       </c>
       <c r="E2" t="n">
-        <v>118.3663778732637</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>149.2716195574529</v>
       </c>
       <c r="H2" t="n">
         <v>314.2083504396427</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.8004413602293</v>
+        <v>152.8004413602294</v>
       </c>
       <c r="T2" t="n">
         <v>212.2960065554913</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1482828471418</v>
       </c>
       <c r="V2" t="n">
-        <v>64.1882662711368</v>
+        <v>102.4811398829689</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27463,10 +27463,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>126.3041409778815</v>
       </c>
       <c r="E3" t="n">
-        <v>51.14863428385672</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27475,10 +27475,10 @@
         <v>136.0234885084581</v>
       </c>
       <c r="H3" t="n">
-        <v>99.48674643928072</v>
+        <v>99.48674643928074</v>
       </c>
       <c r="I3" t="n">
-        <v>43.94827785225815</v>
+        <v>43.94827785225818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27517,7 +27517,7 @@
         <v>225.8545380905306</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27542,13 +27542,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>2.040264339237808</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.8843116769506</v>
@@ -27560,7 +27560,7 @@
         <v>122.1699595597228</v>
       </c>
       <c r="J4" t="n">
-        <v>15.11777503404775</v>
+        <v>15.1177750340478</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5335881704492</v>
+        <v>127.5335881704493</v>
       </c>
       <c r="S4" t="n">
         <v>204.7303985328714</v>
@@ -27596,13 +27596,13 @@
         <v>286.2586656647723</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>41.75763168491076</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619744</v>
+        <v>170.1648765455755</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>139.9227315613168</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
         <v>64.03837846862876</v>
@@ -27694,16 +27694,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57.21613438642676</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>32.36668412915964</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27712,10 +27712,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
@@ -27754,10 +27754,10 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27797,7 +27797,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>162.939164354473</v>
       </c>
       <c r="X7" t="n">
-        <v>41.17594710093709</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27861,16 +27861,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>281.0602889432552</v>
       </c>
       <c r="H8" t="n">
-        <v>51.69532716227476</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,22 +28013,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>46.91356563188793</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28067,13 +28067,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>115.3258519193757</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -29805,7 +29805,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>5.142369289011372e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29997,7 +29997,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.467125758684188</v>
+        <v>2.467125758684186</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26645167612444</v>
+        <v>25.26645167612443</v>
       </c>
       <c r="I2" t="n">
-        <v>95.11386581167224</v>
+        <v>95.11386581167218</v>
       </c>
       <c r="J2" t="n">
-        <v>209.3942148611223</v>
+        <v>209.3942148611222</v>
       </c>
       <c r="K2" t="n">
-        <v>313.827648226224</v>
+        <v>313.8276482262238</v>
       </c>
       <c r="L2" t="n">
-        <v>389.3309481635553</v>
+        <v>389.3309481635551</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2056958745552</v>
+        <v>433.205695874555</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2154169364167</v>
+        <v>440.2154169364164</v>
       </c>
       <c r="O2" t="n">
-        <v>415.6829351735008</v>
+        <v>415.6829351735005</v>
       </c>
       <c r="P2" t="n">
-        <v>354.7757680059848</v>
+        <v>354.7757680059846</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4218267731073</v>
+        <v>266.4218267731071</v>
       </c>
       <c r="R2" t="n">
         <v>154.9755884389457</v>
       </c>
       <c r="S2" t="n">
-        <v>56.21962822601598</v>
+        <v>56.21962822601596</v>
       </c>
       <c r="T2" t="n">
-        <v>10.79984300864004</v>
+        <v>10.79984300864003</v>
       </c>
       <c r="U2" t="n">
-        <v>0.197370060694735</v>
+        <v>0.1973700606947349</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320028654752583</v>
+        <v>1.320028654752582</v>
       </c>
       <c r="H3" t="n">
-        <v>12.74869779721574</v>
+        <v>12.74869779721573</v>
       </c>
       <c r="I3" t="n">
-        <v>45.44835499915693</v>
+        <v>45.4483549991569</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7137598773044</v>
+        <v>124.7137598773043</v>
       </c>
       <c r="K3" t="n">
-        <v>213.1556797457274</v>
+        <v>213.1556797457273</v>
       </c>
       <c r="L3" t="n">
-        <v>286.6141164628361</v>
+        <v>286.614116462836</v>
       </c>
       <c r="M3" t="n">
-        <v>334.4651551976172</v>
+        <v>334.465155197617</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3174526235677</v>
+        <v>343.3174526235675</v>
       </c>
       <c r="O3" t="n">
-        <v>314.0683966419446</v>
+        <v>314.0683966419444</v>
       </c>
       <c r="P3" t="n">
-        <v>252.0675770641139</v>
+        <v>252.0675770641138</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5004998592947</v>
+        <v>168.5004998592946</v>
       </c>
       <c r="R3" t="n">
-        <v>81.95756858191919</v>
+        <v>81.95756858191915</v>
       </c>
       <c r="S3" t="n">
-        <v>24.51895330209292</v>
+        <v>24.51895330209291</v>
       </c>
       <c r="T3" t="n">
-        <v>5.32064181455098</v>
+        <v>5.320641814550977</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08684399044424893</v>
+        <v>0.08684399044424888</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,46 +31202,46 @@
         <v>1.106667681508133</v>
       </c>
       <c r="H4" t="n">
-        <v>9.839281750135957</v>
+        <v>9.83928175013595</v>
       </c>
       <c r="I4" t="n">
-        <v>33.28051536753551</v>
+        <v>33.28051536753549</v>
       </c>
       <c r="J4" t="n">
-        <v>78.24140508262502</v>
+        <v>78.24140508262498</v>
       </c>
       <c r="K4" t="n">
-        <v>128.5746633606722</v>
+        <v>128.5746633606721</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5313023944001</v>
+        <v>164.5313023944</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4751893840431</v>
+        <v>173.475189384043</v>
       </c>
       <c r="N4" t="n">
-        <v>169.3503371166038</v>
+        <v>169.3503371166037</v>
       </c>
       <c r="O4" t="n">
-        <v>156.4224464735315</v>
+        <v>156.4224464735314</v>
       </c>
       <c r="P4" t="n">
         <v>133.8464257707654</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.66832740337651</v>
+        <v>92.66832740337647</v>
       </c>
       <c r="R4" t="n">
-        <v>49.75980320672024</v>
+        <v>49.75980320672021</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28619950410082</v>
+        <v>19.28619950410081</v>
       </c>
       <c r="T4" t="n">
-        <v>4.728489184625659</v>
+        <v>4.728489184625657</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06036369171862552</v>
+        <v>0.06036369171862549</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,31 +31278,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31314,7 +31314,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31363,16 +31363,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31381,25 +31381,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,16 +31439,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31460,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,43 +31518,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,7 +31609,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31618,25 +31618,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31709,13 +31709,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31849,22 +31849,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>303.4297552732306</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L18" t="n">
-        <v>337.5641188593844</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33028,7 +33028,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33268,13 +33268,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>513.0745614164389</v>
       </c>
       <c r="M30" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33283,10 +33283,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33511,10 +33511,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33739,7 +33739,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33979,7 +33979,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34213,7 +34213,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34444,19 +34444,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34465,7 +34465,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.34831033443598</v>
+        <v>28.34831033443587</v>
       </c>
       <c r="K2" t="n">
-        <v>93.73779718124342</v>
+        <v>93.73779718124325</v>
       </c>
       <c r="L2" t="n">
-        <v>154.615362202159</v>
+        <v>153.5645331935679</v>
       </c>
       <c r="M2" t="n">
-        <v>202.8594626472825</v>
+        <v>202.8594626472822</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8023533398257</v>
+        <v>210.8023533398255</v>
       </c>
       <c r="O2" t="n">
-        <v>185.584723751814</v>
+        <v>185.5847237518138</v>
       </c>
       <c r="P2" t="n">
-        <v>123.5427722507153</v>
+        <v>123.5427722507151</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.1161368986578</v>
+        <v>44.11613689865763</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.050829008592259</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.31424077136845</v>
+        <v>173.1562724867823</v>
       </c>
       <c r="L3" t="n">
-        <v>148.059736682962</v>
+        <v>148.0597366829618</v>
       </c>
       <c r="M3" t="n">
-        <v>192.3311212755989</v>
+        <v>192.3311212755987</v>
       </c>
       <c r="N3" t="n">
-        <v>211.9757405402344</v>
+        <v>211.9757405402342</v>
       </c>
       <c r="O3" t="n">
-        <v>171.4721521975002</v>
+        <v>171.4721521975</v>
       </c>
       <c r="P3" t="n">
-        <v>118.0931696497837</v>
+        <v>118.0931696497835</v>
       </c>
       <c r="Q3" t="n">
-        <v>126.3607574886864</v>
+        <v>28.51872577327305</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,13 +34862,13 @@
         <v>106.3051715347893</v>
       </c>
       <c r="L4" t="n">
-        <v>192.1213276547163</v>
+        <v>192.1213276547162</v>
       </c>
       <c r="M4" t="n">
-        <v>213.0590663458837</v>
+        <v>213.0590663458836</v>
       </c>
       <c r="N4" t="n">
-        <v>213.4825094958324</v>
+        <v>213.4825094958323</v>
       </c>
       <c r="O4" t="n">
         <v>181.0075743875711</v>
@@ -34877,7 +34877,7 @@
         <v>131.1249850356589</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.506284151682124</v>
+        <v>6.506284151682081</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35035,7 +35035,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877686</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313198</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>298.6359741261574</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35269,10 +35269,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35342,7 +35342,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35351,7 +35351,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35433,7 +35433,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35497,22 +35497,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>160.8335108287862</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462684</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="L18" t="n">
-        <v>199.0097390795102</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36676,7 +36676,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>374.5201816365647</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36931,10 +36931,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37159,10 +37159,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37326,7 +37326,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37387,7 +37387,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37627,7 +37627,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,19 +38092,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38113,7 +38113,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
